--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC7D958-0239-4449-A404-705C527A64A6}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="3120" yWindow="2220" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
+    <sheet name="DISTANCIAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>ciudad</t>
   </si>
@@ -54,8 +55,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +412,78 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB00BB-625D-4D68-86E9-64F18F397C07}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -440,13 +521,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -454,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -110,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC7D958-0239-4449-A404-705C527A64A6}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B4B5A7-1BEE-40A0-814A-52ADB6B757B0}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2220" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="1920" yWindow="2850" windowWidth="21600" windowHeight="11835" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
@@ -37,34 +37,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
-    <t>ciudad</t>
+    <t>Oviedo</t>
   </si>
   <si>
-    <t>madrid</t>
+    <t>Santander</t>
   </si>
   <si>
-    <t>barcelona</t>
+    <t>Burgos</t>
   </si>
   <si>
-    <t>valencia</t>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,142 +416,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12715E14-A28A-4A9A-8CC1-03893ABB6593}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1036</v>
+      </c>
+      <c r="C7">
+        <v>805</v>
+      </c>
+      <c r="D7">
+        <v>632</v>
+      </c>
+      <c r="E7">
+        <v>577</v>
+      </c>
+      <c r="F7">
+        <v>282</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>759</v>
+      </c>
+      <c r="I7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB00BB-625D-4D68-86E9-64F18F397C07}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>325</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>410</v>
+      </c>
+      <c r="I2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>325</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>312</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>299</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>299</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>410</v>
+      </c>
+      <c r="C8">
+        <v>312</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>682</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>322</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>230</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B4B5A7-1BEE-40A0-814A-52ADB6B757B0}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="1920" yWindow="2850" windowWidth="21600" windowHeight="11835" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
+    <sheet name="DISTANCIAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,18 +37,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
-    <t>ciudad</t>
+    <t>Oviedo</t>
   </si>
   <si>
-    <t>madrid</t>
+    <t>Santander</t>
   </si>
   <si>
-    <t>barcelona</t>
+    <t>Burgos</t>
   </si>
   <si>
-    <t>valencia</t>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
   </si>
 </sst>
 </file>
@@ -100,6 +113,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,71 +416,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12715E14-A28A-4A9A-8CC1-03893ABB6593}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1036</v>
+      </c>
+      <c r="C7">
+        <v>805</v>
+      </c>
+      <c r="D7">
+        <v>632</v>
+      </c>
+      <c r="E7">
+        <v>577</v>
+      </c>
+      <c r="F7">
+        <v>282</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>759</v>
+      </c>
+      <c r="I7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB00BB-625D-4D68-86E9-64F18F397C07}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>325</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>410</v>
+      </c>
+      <c r="I2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>325</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>312</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>285</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>299</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>299</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>410</v>
+      </c>
+      <c r="C8">
+        <v>312</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>682</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>322</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>230</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B4B5A7-1BEE-40A0-814A-52ADB6B757B0}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F25C9E-55CF-41FF-AC83-2827FEE47F68}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2850" windowWidth="21600" windowHeight="11835" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
-    <sheet name="DISTANCIAS" sheetId="2" r:id="rId2"/>
+    <sheet name="TRANSBORDOS" sheetId="3" r:id="rId2"/>
+    <sheet name="HORAS" sheetId="5" r:id="rId3"/>
+    <sheet name="DISTANCIAS" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Oviedo</t>
   </si>
@@ -96,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,13 +421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12715E14-A28A-4A9A-8CC1-03893ABB6593}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -450,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -479,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -537,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -566,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -595,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -624,7 +627,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -689,6 +692,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01EFE4-C8BC-49DF-921D-476FE0A34085}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E79CF-6016-4874-953F-BB856C4C2411}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB00BB-625D-4D68-86E9-64F18F397C07}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -696,9 +1709,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -753,7 +1766,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -782,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -811,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -840,7 +1853,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -869,7 +1882,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -898,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -927,7 +1940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F25C9E-55CF-41FF-AC83-2827FEE47F68}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658DC183-B6BD-42D7-9DC1-7613C7725AF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
@@ -69,8 +69,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,10 +975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E79CF-6016-4874-953F-BB856C4C2411}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1040,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1060,7 +1069,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1089,7 +1098,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.125</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1118,7 +1127,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1147,7 +1156,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1176,7 +1185,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1205,7 +1214,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1234,7 +1243,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1263,7 +1272,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.375</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1292,7 +1301,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1321,7 +1330,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1350,36 +1359,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1408,7 +1417,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1437,7 +1446,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>0.625</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1466,7 +1475,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1495,7 +1504,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1524,7 +1533,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>0.75</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1553,7 +1562,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1582,7 +1591,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1611,7 +1620,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>0.875</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1640,7 +1649,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1669,7 +1678,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1695,9 +1704,13 @@
       <c r="I25">
         <v>0</v>
       </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658DC183-B6BD-42D7-9DC1-7613C7725AF2}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6514D830-E649-471E-AC1C-B8FE0172AC08}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01EFE4-C8BC-49DF-921D-476FE0A34085}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E79CF-6016-4874-953F-BB856C4C2411}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6514D830-E649-471E-AC1C-B8FE0172AC08}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658DC183-B6BD-42D7-9DC1-7613C7725AF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01EFE4-C8BC-49DF-921D-476FE0A34085}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E79CF-6016-4874-953F-BB856C4C2411}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Datos/datos.xlsx
+++ b/Datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/francisco_chicote_alumnos_upm_es/Documents/UNIVERSIDAD/3º/INTELIGENCIA ARTIFICIAL/TRABAJO/ProyectoIA/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658DC183-B6BD-42D7-9DC1-7613C7725AF2}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{2E828915-0AA1-48FD-A3DC-CDF2F936A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB18E5F-46E6-4BAC-BCA2-8155C757A02A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{2BF03989-8790-4594-8FF3-C7524CF6EFA3}"/>
   </bookViews>
   <sheets>
     <sheet name="HEURISTICA" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01EFE4-C8BC-49DF-921D-476FE0A34085}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -869,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -965,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E79CF-6016-4874-953F-BB856C4C2411}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
